--- a/Texts/Сюжетные сцены/Глава 13.xlsx
+++ b/Texts/Сюжетные сцены/Глава 13.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1350">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -1497,9 +1497,6 @@
     <t xml:space="preserve"> Что я тоже...[K] Покемон из\nбудущего.</t>
   </si>
   <si>
-    <t xml:space="preserve"> [CS:N]Даскнуар[CR]...[K] Ещё одни Покемон\nиз будущего?!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ей-богу!</t>
   </si>
   <si>
@@ -1884,9 +1881,6 @@
     <t xml:space="preserve"> Œóï ÿ óïçå...[K] Ðïëåíïî éè\náôäôþåãï.</t>
   </si>
   <si>
-    <t xml:space="preserve"> [CS:N]Äàòëîôàñ[CR]...[K] Åþæ ïäîé Ðïëåíïî\néè áôäôþåãï?!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Åê-áïãô!</t>
   </si>
   <si>
@@ -3144,9 +3138,6 @@
     <t xml:space="preserve"> Вау! НАКОНЕЦ-ТО!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ей-боже! [CS:N]Гровайла[CR] поймали!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> О боже мой! У них получилось!\nУрааа!</t>
   </si>
   <si>
@@ -3222,9 +3213,6 @@
     <t xml:space="preserve"> Âàô! ÎÀËÏÎÅØ-ÓÏ!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Åê-áïçå! [CS:N]Ãñïâàêìà[CR] ðïêíàìé!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ï áïçå íïê! Ô îéö ðïìôœéìïòû!\nÔñààà!</t>
   </si>
   <si>
@@ -3813,9 +3801,6 @@
     <t xml:space="preserve"> Ааааа!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ей-боже!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ч-что за...</t>
   </si>
   <si>
@@ -4062,9 +4047,6 @@
     <t xml:space="preserve"> Ààààà!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Åê-áïçå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Œ-œóï èà...</t>
   </si>
   <si>
@@ -4075,13 +4057,25 @@
   </si>
   <si>
     <t>44, 47, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ей-богу! [CS:N]Гровайла[CR] поймали!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åê-áïãô! [CS:N]Ãñïâàêìà[CR] ðïêíàìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Даскнуар[CR]...[K] Ещё один Покемон\nиз будущего?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàòëîôàñ[CR]...[K] Åþæ ïäéî Ðïëåíïî\néè áôäôþåãï?!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4103,6 +4097,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4365,7 +4366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4542,6 +4543,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4826,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6494,7 +6498,7 @@
         <v>468</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6512,7 +6516,7 @@
         <v>469</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6530,7 +6534,7 @@
         <v>470</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6546,7 +6550,7 @@
         <v>471</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6562,7 +6566,7 @@
         <v>472</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6580,7 +6584,7 @@
         <v>473</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6598,7 +6602,7 @@
         <v>474</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6616,7 +6620,7 @@
         <v>475</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,7 +6638,7 @@
         <v>476</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6650,7 +6654,7 @@
         <v>477</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6668,7 +6672,7 @@
         <v>478</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6684,7 +6688,7 @@
         <v>479</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6700,7 +6704,7 @@
         <v>480</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6716,7 +6720,7 @@
         <v>481</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6732,7 +6736,7 @@
         <v>482</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6748,7 +6752,7 @@
         <v>483</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6764,7 +6768,7 @@
         <v>484</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6782,7 +6786,7 @@
         <v>485</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6800,7 +6804,7 @@
         <v>486</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6818,7 +6822,7 @@
         <v>487</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6834,7 +6838,7 @@
         <v>488</v>
       </c>
       <c r="F116" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6850,7 +6854,7 @@
         <v>489</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6866,7 +6870,7 @@
         <v>490</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6882,7 +6886,7 @@
         <v>491</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -6909,14 +6913,14 @@
       <c r="C121" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="D121" s="60" t="s">
         <v>351</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>492</v>
+        <v>1348</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>621</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6931,10 +6935,10 @@
         <v>353</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6947,10 +6951,10 @@
         <v>354</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6965,10 +6969,10 @@
         <v>355</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6981,10 +6985,10 @@
         <v>356</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6997,10 +7001,10 @@
         <v>357</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7013,10 +7017,10 @@
         <v>358</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7029,10 +7033,10 @@
         <v>359</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7047,10 +7051,10 @@
         <v>360</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7065,10 +7069,10 @@
         <v>361</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7081,10 +7085,10 @@
         <v>362</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7097,10 +7101,10 @@
         <v>363</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7113,10 +7117,10 @@
         <v>364</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7129,10 +7133,10 @@
         <v>365</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7145,10 +7149,10 @@
         <v>366</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,10 +7167,10 @@
         <v>367</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F136" s="29" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7181,10 +7185,10 @@
         <v>368</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7197,10 +7201,10 @@
         <v>369</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7215,10 +7219,10 @@
         <v>370</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7233,10 +7237,10 @@
         <v>371</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7249,10 +7253,10 @@
         <v>372</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7267,10 +7271,10 @@
         <v>373</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7283,10 +7287,10 @@
         <v>374</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7301,10 +7305,10 @@
         <v>375</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7317,10 +7321,10 @@
         <v>376</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7333,10 +7337,10 @@
         <v>377</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7351,10 +7355,10 @@
         <v>378</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7369,10 +7373,10 @@
         <v>379</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F148" s="29" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7387,10 +7391,10 @@
         <v>380</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7405,10 +7409,10 @@
         <v>382</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,10 +7427,10 @@
         <v>383</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7441,10 +7445,10 @@
         <v>384</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F152" s="29" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -7459,10 +7463,10 @@
         <v>385</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F153" s="29" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -7477,10 +7481,10 @@
         <v>386</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7495,10 +7499,10 @@
         <v>387</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F155" s="29" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -7513,10 +7517,10 @@
         <v>388</v>
       </c>
       <c r="E156" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F156" s="29" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7529,10 +7533,10 @@
         <v>389</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F157" s="29" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -7545,10 +7549,10 @@
         <v>390</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7561,10 +7565,10 @@
         <v>391</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -7579,10 +7583,10 @@
         <v>392</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F160" s="29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -7597,10 +7601,10 @@
         <v>393</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F161" s="29" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7613,10 +7617,10 @@
         <v>394</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F162" s="29" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7629,10 +7633,10 @@
         <v>395</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F163" s="29" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7645,10 +7649,10 @@
         <v>396</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F164" s="29" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -7661,10 +7665,10 @@
         <v>397</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F165" s="29" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7679,10 +7683,10 @@
         <v>398</v>
       </c>
       <c r="E166" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F166" s="29" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7695,10 +7699,10 @@
         <v>399</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F167" s="29" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7713,10 +7717,10 @@
         <v>400</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7731,10 +7735,10 @@
         <v>401</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F169" s="29" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7767,10 +7771,10 @@
         <v>403</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F171" s="29" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7785,10 +7789,10 @@
         <v>404</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7803,10 +7807,10 @@
         <v>405</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F173" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -7821,10 +7825,10 @@
         <v>406</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F174" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -7839,10 +7843,10 @@
         <v>407</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F175" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -7855,10 +7859,10 @@
         <v>408</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F176" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7871,10 +7875,10 @@
         <v>409</v>
       </c>
       <c r="E177" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7887,10 +7891,10 @@
         <v>410</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F178" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7903,10 +7907,10 @@
         <v>411</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F179" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7919,10 +7923,10 @@
         <v>412</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F180" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7935,10 +7939,10 @@
         <v>413</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F181" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7953,10 +7957,10 @@
         <v>414</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7971,10 +7975,10 @@
         <v>415</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F183" s="29" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7987,10 +7991,10 @@
         <v>416</v>
       </c>
       <c r="E184" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F184" s="29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8003,10 +8007,10 @@
         <v>417</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F185" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8019,10 +8023,10 @@
         <v>418</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F186" s="29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8035,10 +8039,10 @@
         <v>418</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F187" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -8053,10 +8057,10 @@
         <v>420</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F188" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8071,10 +8075,10 @@
         <v>421</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F189" s="29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8089,10 +8093,10 @@
         <v>422</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F190" s="29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8107,10 +8111,10 @@
         <v>424</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F191" s="29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8125,10 +8129,10 @@
         <v>425</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F192" s="29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8141,10 +8145,10 @@
         <v>426</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F193" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8157,10 +8161,10 @@
         <v>428</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8175,10 +8179,10 @@
         <v>430</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8191,10 +8195,10 @@
         <v>431</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F196" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -8207,10 +8211,10 @@
         <v>432</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F197" s="29" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8225,10 +8229,10 @@
         <v>434</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F198" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8241,10 +8245,10 @@
         <v>435</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F199" s="29" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8257,10 +8261,10 @@
         <v>436</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8273,10 +8277,10 @@
         <v>437</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F201" s="29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8289,10 +8293,10 @@
         <v>438</v>
       </c>
       <c r="E202" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F202" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8305,10 +8309,10 @@
         <v>439</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F203" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8321,10 +8325,10 @@
         <v>440</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F204" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -8337,10 +8341,10 @@
         <v>441</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F205" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -8355,10 +8359,10 @@
         <v>443</v>
       </c>
       <c r="E206" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F206" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8371,10 +8375,10 @@
         <v>444</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F207" s="29" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8387,10 +8391,10 @@
         <v>445</v>
       </c>
       <c r="E208" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F208" s="29" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -8405,10 +8409,10 @@
         <v>446</v>
       </c>
       <c r="E209" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -8421,10 +8425,10 @@
         <v>447</v>
       </c>
       <c r="E210" s="28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F210" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8437,10 +8441,10 @@
         <v>448</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F211" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -8453,10 +8457,10 @@
         <v>449</v>
       </c>
       <c r="E212" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F212" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8469,10 +8473,10 @@
         <v>450</v>
       </c>
       <c r="E213" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F213" s="29" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -8487,10 +8491,10 @@
         <v>451</v>
       </c>
       <c r="E214" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F214" s="29" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -8505,10 +8509,10 @@
         <v>452</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F215" s="29" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,10 +8527,10 @@
         <v>453</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F216" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8541,10 +8545,10 @@
         <v>454</v>
       </c>
       <c r="E217" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F217" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -8559,10 +8563,10 @@
         <v>455</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F218" s="29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8577,10 +8581,10 @@
         <v>457</v>
       </c>
       <c r="E219" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F219" s="29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8595,10 +8599,10 @@
         <v>458</v>
       </c>
       <c r="E220" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F220" s="29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8611,10 +8615,10 @@
         <v>459</v>
       </c>
       <c r="E221" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F221" s="29" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -8627,10 +8631,10 @@
         <v>460</v>
       </c>
       <c r="E222" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F222" s="29" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8643,10 +8647,10 @@
         <v>461</v>
       </c>
       <c r="E223" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F223" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -8661,10 +8665,10 @@
         <v>392</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F224" s="29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -8677,10 +8681,10 @@
         <v>462</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F225" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8693,10 +8697,10 @@
         <v>463</v>
       </c>
       <c r="E226" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F226" s="29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8709,10 +8713,10 @@
         <v>464</v>
       </c>
       <c r="E227" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F227" s="29" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8725,10 +8729,10 @@
         <v>465</v>
       </c>
       <c r="E228" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F228" s="29" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="52.2" x14ac:dyDescent="0.3">
@@ -8741,10 +8745,10 @@
         <v>466</v>
       </c>
       <c r="E229" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F229" s="29" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8757,30 +8761,30 @@
         <v>467</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F230" s="43" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="22" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C231" s="23">
         <v>30</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E231" s="24" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F231" s="25" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8792,13 +8796,13 @@
         <v>33</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E232" s="28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F232" s="29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8808,13 +8812,13 @@
         <v>36</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E233" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F233" s="29" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8824,13 +8828,13 @@
         <v>39</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E234" s="28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F234" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8840,13 +8844,13 @@
         <v>42</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E235" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F235" s="29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8856,13 +8860,13 @@
         <v>45</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F236" s="29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8872,13 +8876,13 @@
         <v>48</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E237" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F237" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -8888,13 +8892,13 @@
         <v>51</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E238" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F238" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8904,13 +8908,13 @@
         <v>54</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E239" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F239" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -8922,13 +8926,13 @@
         <v>116</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E240" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F240" s="29" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -8940,13 +8944,13 @@
         <v>243</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E241" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F241" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8956,13 +8960,13 @@
         <v>254</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E242" s="28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F242" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -8972,13 +8976,13 @@
         <v>257</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E243" s="28" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F243" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8988,13 +8992,13 @@
         <v>273</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E244" s="28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F244" s="29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9004,13 +9008,13 @@
         <v>291</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E245" s="28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F245" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9020,13 +9024,13 @@
         <v>294</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E246" s="28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F246" s="29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -9036,47 +9040,47 @@
         <v>297</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E247" s="42" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F247" s="43" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="46" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B248" s="47"/>
       <c r="C248" s="23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F248" s="25" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A249" s="30"/>
       <c r="B249" s="27"/>
       <c r="C249" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E249" s="28" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F249" s="29" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9086,125 +9090,125 @@
         <v>87</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E250" s="28" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F250" s="29" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A251" s="30"/>
       <c r="B251" s="31"/>
       <c r="C251" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E251" s="28" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F251" s="29" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="30"/>
       <c r="B252" s="31"/>
       <c r="C252" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E252" s="28" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F252" s="29" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A253" s="30"/>
       <c r="B253" s="31"/>
       <c r="C253" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E253" s="28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F253" s="29" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A254" s="30"/>
       <c r="B254" s="31"/>
       <c r="C254" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E254" s="28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F254" s="29" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="30"/>
       <c r="B255" s="31"/>
       <c r="C255" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E255" s="28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F255" s="29" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A256" s="30"/>
       <c r="B256" s="31"/>
       <c r="C256" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E256" s="28" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F256" s="29" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A257" s="30"/>
       <c r="B257" s="31"/>
       <c r="C257" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D257" s="28" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E257" s="28" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F257" s="29" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9214,13 +9218,13 @@
         <v>191</v>
       </c>
       <c r="D258" s="28" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E258" s="28" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F258" s="29" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9230,13 +9234,13 @@
         <v>195</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E259" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F259" s="29" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9246,13 +9250,13 @@
         <v>199</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E260" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F260" s="29" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9262,13 +9266,13 @@
         <v>205</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E261" s="28" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F261" s="29" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9278,13 +9282,13 @@
         <v>209</v>
       </c>
       <c r="D262" s="28" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E262" s="28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F262" s="29" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9294,111 +9298,111 @@
         <v>213</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E263" s="28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F263" s="29" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A264" s="30"/>
       <c r="B264" s="31"/>
       <c r="C264" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E264" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F264" s="29" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A265" s="30"/>
       <c r="B265" s="31"/>
       <c r="C265" s="27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E265" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F265" s="29" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="30"/>
       <c r="B266" s="31"/>
       <c r="C266" s="27" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E266" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F266" s="29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A267" s="30"/>
       <c r="B267" s="31"/>
       <c r="C267" s="27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D267" s="28" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E267" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F267" s="29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="48"/>
       <c r="B268" s="49"/>
       <c r="C268" s="41" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E268" s="42" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F268" s="43" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="46" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B269" s="23"/>
       <c r="C269" s="23" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D269" s="24" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E269" s="24" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F269" s="25" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9408,111 +9412,111 @@
         <v>37</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E270" s="28" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F270" s="29" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="30"/>
       <c r="B271" s="31"/>
       <c r="C271" s="27" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D271" s="28" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E271" s="28" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F271" s="29" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A272" s="30"/>
       <c r="B272" s="31"/>
       <c r="C272" s="27" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E272" s="28" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F272" s="29" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A273" s="30"/>
       <c r="B273" s="31"/>
       <c r="C273" s="27" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D273" s="28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E273" s="28" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F273" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="30"/>
       <c r="B274" s="31"/>
       <c r="C274" s="27" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E274" s="28" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F274" s="29" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="48"/>
       <c r="B275" s="49"/>
       <c r="C275" s="41" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E275" s="42" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F275" s="43" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="22" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B276" s="50"/>
       <c r="C276" s="23">
         <v>36</v>
       </c>
       <c r="D276" s="24" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E276" s="24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F276" s="25" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9524,13 +9528,13 @@
         <v>39</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E277" s="28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F277" s="29" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9542,13 +9546,13 @@
         <v>53</v>
       </c>
       <c r="D278" s="28" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E278" s="28" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F278" s="29" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -9560,13 +9564,13 @@
         <v>62</v>
       </c>
       <c r="D279" s="28" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E279" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F279" s="29" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9576,13 +9580,13 @@
         <v>65</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E280" s="28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F280" s="29" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9592,13 +9596,13 @@
         <v>73</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E281" s="28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F281" s="29" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9608,13 +9612,13 @@
         <v>76</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E282" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F282" s="29" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9624,13 +9628,13 @@
         <v>79</v>
       </c>
       <c r="D283" s="28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E283" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F283" s="29" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9640,13 +9644,13 @@
         <v>82</v>
       </c>
       <c r="D284" s="28" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E284" s="28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F284" s="29" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -9658,13 +9662,13 @@
         <v>147</v>
       </c>
       <c r="D285" s="28" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E285" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F285" s="29" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -9676,13 +9680,13 @@
         <v>274</v>
       </c>
       <c r="D286" s="28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E286" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9692,13 +9696,13 @@
         <v>285</v>
       </c>
       <c r="D287" s="28" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E287" s="28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F287" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9708,175 +9712,175 @@
         <v>288</v>
       </c>
       <c r="D288" s="42" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E288" s="42" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F288" s="43" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="46" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B289" s="47"/>
       <c r="C289" s="23" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E289" s="24" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F289" s="25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="30"/>
       <c r="B290" s="31"/>
       <c r="C290" s="27" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D290" s="28" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E290" s="28" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F290" s="29" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A291" s="30"/>
       <c r="B291" s="31"/>
       <c r="C291" s="27" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D291" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E291" s="28" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F291" s="29" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A292" s="30"/>
       <c r="B292" s="31"/>
       <c r="C292" s="27" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D292" s="28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E292" s="28" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F292" s="29" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A293" s="30"/>
       <c r="B293" s="31"/>
       <c r="C293" s="27" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D293" s="28" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E293" s="28" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F293" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="30"/>
       <c r="B294" s="31"/>
       <c r="C294" s="27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D294" s="28" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E294" s="28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F294" s="29" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A295" s="30"/>
       <c r="B295" s="31"/>
       <c r="C295" s="27" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D295" s="28" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E295" s="28" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F295" s="29" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="52"/>
       <c r="B296" s="53"/>
       <c r="C296" s="27" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D296" s="28" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E296" s="28" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F296" s="29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A297" s="52"/>
       <c r="B297" s="53"/>
       <c r="C297" s="27" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D297" s="28" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E297" s="28" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F297" s="29" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="52"/>
       <c r="B298" s="53"/>
       <c r="C298" s="27" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D298" s="28" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E298" s="28" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F298" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9886,13 +9890,13 @@
         <v>191</v>
       </c>
       <c r="D299" s="28" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E299" s="28" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F299" s="29" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9902,177 +9906,177 @@
         <v>195</v>
       </c>
       <c r="D300" s="28" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E300" s="28" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F300" s="29" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A301" s="52"/>
       <c r="B301" s="53"/>
       <c r="C301" s="27" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E301" s="28" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F301" s="29" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="52"/>
       <c r="B302" s="53"/>
       <c r="C302" s="27" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D302" s="28" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E302" s="28" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F302" s="29" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="52"/>
       <c r="B303" s="53"/>
       <c r="C303" s="27" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D303" s="28" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E303" s="28" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F303" s="29" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="52"/>
       <c r="B304" s="53"/>
       <c r="C304" s="27" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D304" s="28" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E304" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F304" s="29" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="30"/>
       <c r="B305" s="31"/>
       <c r="C305" s="27" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D305" s="28" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E305" s="28" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F305" s="29" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A306" s="30"/>
       <c r="B306" s="31"/>
       <c r="C306" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D306" s="28" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E306" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F306" s="29" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A307" s="30"/>
       <c r="B307" s="31"/>
       <c r="C307" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D307" s="28" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E307" s="28" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F307" s="29" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="30"/>
       <c r="B308" s="31"/>
       <c r="C308" s="27" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D308" s="28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E308" s="28" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F308" s="29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="48"/>
       <c r="B309" s="49"/>
       <c r="C309" s="41" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D309" s="42" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E309" s="42" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F309" s="43" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A310" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="B310" s="23" t="s">
         <v>1001</v>
-      </c>
-      <c r="B310" s="23" t="s">
-        <v>1003</v>
       </c>
       <c r="C310" s="23">
         <v>13</v>
       </c>
       <c r="D310" s="24" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E310" s="24" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F310" s="25" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10084,13 +10088,13 @@
         <v>16</v>
       </c>
       <c r="D311" s="28" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E311" s="28" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F311" s="29" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10100,13 +10104,13 @@
         <v>19</v>
       </c>
       <c r="D312" s="28" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E312" s="28" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F312" s="29" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10116,13 +10120,13 @@
         <v>22</v>
       </c>
       <c r="D313" s="28" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E313" s="28" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F313" s="29" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -10132,13 +10136,13 @@
         <v>48</v>
       </c>
       <c r="D314" s="28" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E314" s="28" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F314" s="29" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -10150,13 +10154,13 @@
         <v>101</v>
       </c>
       <c r="D315" s="28" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E315" s="28" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F315" s="29" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10168,13 +10172,13 @@
         <v>113</v>
       </c>
       <c r="D316" s="28" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E316" s="28" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F316" s="29" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10184,13 +10188,13 @@
         <v>123</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E317" s="28" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F317" s="29" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10200,13 +10204,13 @@
         <v>126</v>
       </c>
       <c r="D318" s="28" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E318" s="28" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F318" s="29" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -10218,13 +10222,13 @@
         <v>161</v>
       </c>
       <c r="D319" s="28" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E319" s="28" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F319" s="29" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10236,13 +10240,13 @@
         <v>170</v>
       </c>
       <c r="D320" s="28" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E320" s="28" t="s">
-        <v>1041</v>
+        <v>1346</v>
       </c>
       <c r="F320" s="29" t="s">
-        <v>1067</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -10254,13 +10258,13 @@
         <v>180</v>
       </c>
       <c r="D321" s="28" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E321" s="28" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="F321" s="29" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -10272,13 +10276,13 @@
         <v>185</v>
       </c>
       <c r="D322" s="28" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E322" s="28" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F322" s="29" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10288,13 +10292,13 @@
         <v>188</v>
       </c>
       <c r="D323" s="28" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E323" s="28" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F323" s="29" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10304,13 +10308,13 @@
         <v>191</v>
       </c>
       <c r="D324" s="28" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E324" s="28" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F324" s="29" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -10322,29 +10326,29 @@
         <v>221</v>
       </c>
       <c r="D325" s="28" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E325" s="28" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F325" s="29" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="30"/>
       <c r="B326" s="31"/>
       <c r="C326" s="27" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D326" s="28" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E326" s="28" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F326" s="29" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -10356,13 +10360,13 @@
         <v>244</v>
       </c>
       <c r="D327" s="28" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E327" s="28" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F327" s="29" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -10372,13 +10376,13 @@
         <v>247</v>
       </c>
       <c r="D328" s="28" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E328" s="28" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F328" s="29" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10390,13 +10394,13 @@
         <v>252</v>
       </c>
       <c r="D329" s="28" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E329" s="28" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F329" s="29" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10406,13 +10410,13 @@
         <v>255</v>
       </c>
       <c r="D330" s="28" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E330" s="28" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F330" s="29" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10422,13 +10426,13 @@
         <v>258</v>
       </c>
       <c r="D331" s="28" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E331" s="28" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F331" s="29" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10438,13 +10442,13 @@
         <v>261</v>
       </c>
       <c r="D332" s="28" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E332" s="28" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F332" s="29" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10454,13 +10458,13 @@
         <v>264</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E333" s="28" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F333" s="29" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10472,49 +10476,49 @@
         <v>308</v>
       </c>
       <c r="D334" s="28" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E334" s="28" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F334" s="29" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="48"/>
       <c r="B335" s="49"/>
       <c r="C335" s="41" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D335" s="42" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E335" s="42" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F335" s="43" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="22" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C336" s="23">
         <v>78</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E336" s="24" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="F336" s="25" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10526,13 +10530,13 @@
         <v>89</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E337" s="28" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F337" s="29" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -10544,13 +10548,13 @@
         <v>111</v>
       </c>
       <c r="D338" s="28" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E338" s="28" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="F338" s="29" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10562,13 +10566,13 @@
         <v>234</v>
       </c>
       <c r="D339" s="28" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E339" s="28" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F339" s="29" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10580,13 +10584,13 @@
         <v>248</v>
       </c>
       <c r="D340" s="28" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E340" s="28" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="F340" s="29" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -10598,13 +10602,13 @@
         <v>257</v>
       </c>
       <c r="D341" s="28" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E341" s="28" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F341" s="29" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10614,13 +10618,13 @@
         <v>260</v>
       </c>
       <c r="D342" s="28" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E342" s="28" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F342" s="29" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -10632,13 +10636,13 @@
         <v>307</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E343" s="28" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F343" s="29" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10648,13 +10652,13 @@
         <v>310</v>
       </c>
       <c r="D344" s="28" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E344" s="28" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="F344" s="29" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10664,13 +10668,13 @@
         <v>313</v>
       </c>
       <c r="D345" s="28" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E345" s="28" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F345" s="29" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10680,13 +10684,13 @@
         <v>316</v>
       </c>
       <c r="D346" s="28" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E346" s="28" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F346" s="29" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -10698,29 +10702,29 @@
         <v>328</v>
       </c>
       <c r="D347" s="28" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="E347" s="28" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F347" s="29" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A348" s="30"/>
       <c r="B348" s="31"/>
       <c r="C348" s="27" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D348" s="28" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E348" s="28" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F348" s="29" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -10732,29 +10736,29 @@
         <v>424</v>
       </c>
       <c r="D349" s="28" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E349" s="28" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F349" s="29" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="30"/>
       <c r="B350" s="27"/>
       <c r="C350" s="27" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D350" s="28" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E350" s="28" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F350" s="29" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -10764,13 +10768,13 @@
         <v>494</v>
       </c>
       <c r="D351" s="28" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E351" s="28" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F351" s="29" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -10782,29 +10786,29 @@
         <v>500</v>
       </c>
       <c r="D352" s="28" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E352" s="28" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F352" s="29" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="30"/>
       <c r="B353" s="31"/>
       <c r="C353" s="27" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D353" s="28" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E353" s="28" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F353" s="29" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -10816,7 +10820,7 @@
         <v>523</v>
       </c>
       <c r="D354" s="28" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E354" s="28" t="s">
         <v>213</v>
@@ -10832,13 +10836,13 @@
         <v>526</v>
       </c>
       <c r="D355" s="28" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E355" s="28" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F355" s="29" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -10848,13 +10852,13 @@
         <v>529</v>
       </c>
       <c r="D356" s="28" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E356" s="28" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F356" s="29" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10864,29 +10868,29 @@
         <v>532</v>
       </c>
       <c r="D357" s="28" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E357" s="28" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F357" s="29" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="30"/>
       <c r="B358" s="31"/>
       <c r="C358" s="27" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D358" s="28" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E358" s="28" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F358" s="29" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10898,13 +10902,13 @@
         <v>558</v>
       </c>
       <c r="D359" s="28" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E359" s="28" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F359" s="29" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -10916,13 +10920,13 @@
         <v>576</v>
       </c>
       <c r="D360" s="28" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="E360" s="28" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F360" s="29" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -10934,31 +10938,31 @@
         <v>645</v>
       </c>
       <c r="D361" s="28" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E361" s="28" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F361" s="29" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A362" s="26" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B362" s="27"/>
       <c r="C362" s="27">
         <v>650</v>
       </c>
       <c r="D362" s="28" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="E362" s="28" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="F362" s="29" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -10970,13 +10974,13 @@
         <v>664</v>
       </c>
       <c r="D363" s="28" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E363" s="28" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F363" s="29" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -10988,31 +10992,31 @@
         <v>808</v>
       </c>
       <c r="D364" s="28" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E364" s="28" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="F364" s="29" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="26" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B365" s="27"/>
       <c r="C365" s="27">
         <v>818</v>
       </c>
       <c r="D365" s="28" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E365" s="28" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F365" s="29" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11024,13 +11028,13 @@
         <v>825</v>
       </c>
       <c r="D366" s="28" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E366" s="28" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F366" s="29" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -11042,13 +11046,13 @@
         <v>853</v>
       </c>
       <c r="D367" s="28" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E367" s="28" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F367" s="29" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11060,13 +11064,13 @@
         <v>853</v>
       </c>
       <c r="D368" s="28" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E368" s="28" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="F368" s="29" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -11078,13 +11082,13 @@
         <v>1043</v>
       </c>
       <c r="D369" s="28" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E369" s="28" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F369" s="29" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11094,13 +11098,13 @@
         <v>1046</v>
       </c>
       <c r="D370" s="28" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E370" s="28" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F370" s="29" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -11110,13 +11114,13 @@
         <v>1054</v>
       </c>
       <c r="D371" s="28" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E371" s="28" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F371" s="29" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -11126,13 +11130,13 @@
         <v>1062</v>
       </c>
       <c r="D372" s="28" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E372" s="28" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="F372" s="29" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -11142,13 +11146,13 @@
         <v>1072</v>
       </c>
       <c r="D373" s="28" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E373" s="28" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F373" s="29" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -11158,13 +11162,13 @@
         <v>1075</v>
       </c>
       <c r="D374" s="28" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E374" s="28" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F374" s="29" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11174,13 +11178,13 @@
         <v>1085</v>
       </c>
       <c r="D375" s="28" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E375" s="28" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F375" s="29" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11190,63 +11194,63 @@
         <v>1102</v>
       </c>
       <c r="D376" s="28" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E376" s="28" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F376" s="29" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="26" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B377" s="27"/>
       <c r="C377" s="27">
         <v>1122</v>
       </c>
       <c r="D377" s="28" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E377" s="28" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F377" s="29" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="30"/>
       <c r="B378" s="31"/>
       <c r="C378" s="27" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D378" s="28" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E378" s="28" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F378" s="29" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="30"/>
       <c r="B379" s="31"/>
       <c r="C379" s="27" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D379" s="28" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E379" s="28" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F379" s="29" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11258,13 +11262,13 @@
         <v>1167</v>
       </c>
       <c r="D380" s="28" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E380" s="28" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F380" s="29" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -11274,13 +11278,13 @@
         <v>1184</v>
       </c>
       <c r="D381" s="28" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E381" s="28" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F381" s="29" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11290,13 +11294,13 @@
         <v>1187</v>
       </c>
       <c r="D382" s="28" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E382" s="28" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F382" s="29" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -11308,13 +11312,13 @@
         <v>1193</v>
       </c>
       <c r="D383" s="28" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E383" s="28" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F383" s="29" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -11326,13 +11330,13 @@
         <v>1199</v>
       </c>
       <c r="D384" s="28" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E384" s="28" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F384" s="29" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11342,13 +11346,13 @@
         <v>1202</v>
       </c>
       <c r="D385" s="28" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E385" s="28" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F385" s="29" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11360,13 +11364,13 @@
         <v>1211</v>
       </c>
       <c r="D386" s="28" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E386" s="28" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="F386" s="29" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -11376,13 +11380,13 @@
         <v>1219</v>
       </c>
       <c r="D387" s="28" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E387" s="28" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F387" s="29" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -11394,7 +11398,7 @@
         <v>1225</v>
       </c>
       <c r="D388" s="28" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E388" s="28" t="s">
         <v>213</v>
@@ -11412,13 +11416,13 @@
         <v>1230</v>
       </c>
       <c r="D389" s="28" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E389" s="28" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F389" s="29" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -11430,13 +11434,13 @@
         <v>1235</v>
       </c>
       <c r="D390" s="28" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E390" s="28" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F390" s="29" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11446,13 +11450,13 @@
         <v>1238</v>
       </c>
       <c r="D391" s="28" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E391" s="28" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="F391" s="29" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -11464,13 +11468,13 @@
         <v>1243</v>
       </c>
       <c r="D392" s="28" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E392" s="28" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F392" s="29" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11482,13 +11486,13 @@
         <v>1249</v>
       </c>
       <c r="D393" s="28" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E393" s="28" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F393" s="29" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11498,13 +11502,13 @@
         <v>1252</v>
       </c>
       <c r="D394" s="28" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E394" s="28" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F394" s="29" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -11516,13 +11520,13 @@
         <v>1257</v>
       </c>
       <c r="D395" s="28" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E395" s="28" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F395" s="29" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11532,13 +11536,13 @@
         <v>1260</v>
       </c>
       <c r="D396" s="28" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E396" s="28" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F396" s="29" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11548,13 +11552,13 @@
         <v>1263</v>
       </c>
       <c r="D397" s="28" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E397" s="28" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F397" s="29" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11566,13 +11570,13 @@
         <v>1269</v>
       </c>
       <c r="D398" s="28" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E398" s="28" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F398" s="29" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11584,13 +11588,13 @@
         <v>1274</v>
       </c>
       <c r="D399" s="28" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E399" s="28" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F399" s="29" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11600,13 +11604,13 @@
         <v>1389</v>
       </c>
       <c r="D400" s="28" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E400" s="28" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F400" s="29" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11618,13 +11622,13 @@
         <v>1402</v>
       </c>
       <c r="D401" s="28" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E401" s="28" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="F401" s="29" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11636,13 +11640,13 @@
         <v>1415</v>
       </c>
       <c r="D402" s="28" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E402" s="28" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F402" s="29" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -11654,13 +11658,13 @@
         <v>1428</v>
       </c>
       <c r="D403" s="28" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E403" s="28" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F403" s="29" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -11670,13 +11674,13 @@
         <v>1431</v>
       </c>
       <c r="D404" s="28" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E404" s="28" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F404" s="29" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -11688,13 +11692,13 @@
         <v>1453</v>
       </c>
       <c r="D405" s="28" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E405" s="28" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F405" s="29" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11704,13 +11708,13 @@
         <v>1461</v>
       </c>
       <c r="D406" s="28" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E406" s="28" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F406" s="29" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -11720,77 +11724,77 @@
         <v>1464</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E407" s="28" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="F407" s="29" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="30"/>
       <c r="B408" s="31"/>
       <c r="C408" s="27" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D408" s="28" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E408" s="28" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F408" s="29" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="30"/>
       <c r="B409" s="31"/>
       <c r="C409" s="27" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D409" s="28" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E409" s="28" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="F409" s="29" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="30"/>
       <c r="B410" s="31"/>
       <c r="C410" s="27" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D410" s="28" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E410" s="28" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F410" s="29" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="30"/>
       <c r="B411" s="31"/>
       <c r="C411" s="27" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D411" s="28" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E411" s="28" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="F411" s="29" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -11802,13 +11806,13 @@
         <v>1543</v>
       </c>
       <c r="D412" s="28" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E412" s="28" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F412" s="29" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -11818,29 +11822,29 @@
         <v>1548</v>
       </c>
       <c r="D413" s="28" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E413" s="28" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="F413" s="29" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="30"/>
       <c r="B414" s="31"/>
       <c r="C414" s="27" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D414" s="28" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E414" s="28" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F414" s="29" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -11852,29 +11856,29 @@
         <v>1590</v>
       </c>
       <c r="D415" s="28" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E415" s="28" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F415" s="29" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="30"/>
       <c r="B416" s="31"/>
       <c r="C416" s="27" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D416" s="28" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E416" s="28" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F416" s="29" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -11886,29 +11890,29 @@
         <v>1657</v>
       </c>
       <c r="D417" s="28" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E417" s="28" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="F417" s="29" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="30"/>
       <c r="B418" s="31"/>
       <c r="C418" s="27" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D418" s="28" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E418" s="28" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F418" s="29" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -11920,13 +11924,13 @@
         <v>1746</v>
       </c>
       <c r="D419" s="28" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E419" s="28" t="s">
-        <v>1264</v>
+        <v>492</v>
       </c>
       <c r="F419" s="29" t="s">
-        <v>1347</v>
+        <v>620</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -11938,31 +11942,31 @@
         <v>1751</v>
       </c>
       <c r="D420" s="28" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E420" s="28" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F420" s="29" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="26" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B421" s="27"/>
       <c r="C421" s="27">
         <v>1823</v>
       </c>
       <c r="D421" s="28" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E421" s="28" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F421" s="29" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -11974,31 +11978,31 @@
         <v>1828</v>
       </c>
       <c r="D422" s="21" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="E422" s="21" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="F422" s="37" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="55"/>
       <c r="B423" s="56" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C423" s="57" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="D423" s="58" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E423" s="58" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F423" s="59" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Сюжетные сцены/Глава 13.xlsx
+++ b/Texts/Сюжетные сцены/Глава 13.xlsx
@@ -4830,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
